--- a/chatbot_engien/train_tools/qna/mtn_train_data.xlsx
+++ b/chatbot_engien/train_tools/qna/mtn_train_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -67,12 +67,6 @@
     <t>{B_DT1} {B_DT2}</t>
   </si>
   <si>
-    <t>{B_DT1} {B_DT2}  시간에 맞는 예측바람장을 조회합니다</t>
-  </si>
-  <si>
-    <t>바람장 이미지</t>
-  </si>
-  <si>
     <t>선택</t>
   </si>
   <si>
@@ -90,6 +84,113 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :D
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반갑습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UluUFMp.jpg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://54.180.195.193:5000/load_wind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">{B_LC1} {B_LC2} </t>
     </r>
     <r>
@@ -168,6 +269,119 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">http://54.180.195.193:5000/load_map
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>링크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{B_DT1} {B_DT2}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측바람장을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">조회합니다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">http://54.180.195.193:5000/load_wind
 </t>
     </r>
     <r>
@@ -639,7 +853,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,10 +890,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,10 +922,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -724,34 +938,34 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -759,8 +973,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>